--- a/Alexa.xlsx
+++ b/Alexa.xlsx
@@ -7477,17 +7477,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="DDEBCF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="9CB86E"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="lt1">
